--- a/residuos.xlsx
+++ b/residuos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB0D59-9587-46CF-BA18-19D01B9E7A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A84041-B332-4020-8DDC-206BB5D5AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>lote</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>dez</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -192,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,266 +503,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="6">
         <v>21722</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <v>18663</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>20474</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>18913</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>19761</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>18216</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>18385</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>19868</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>19495</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>20809</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>21789</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>22628</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="6">
         <v>17529</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="6">
         <v>15526</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>16717</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>15445</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>15951</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>14988</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>15284</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>19162</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>15938</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>17139</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>17298</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>18326</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="6">
         <v>24484</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>21307</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>23559</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>21603</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>22394</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>21010</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>20578</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>22074</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>21867</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>23874</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>24557</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>26224</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F14" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="3"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="2"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
